--- a/Excel dataset/Transaction details.xlsx
+++ b/Excel dataset/Transaction details.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saksh\Desktop\Akshansh\Coding\Github\Retail-etl\Excel dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C6EED87-B3F7-44A4-954E-AE50D57DE5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808CBEEF-F504-48AF-99EB-7503777BF035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4349ADE5-7483-474E-8D74-7C18FC746222}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Products" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$L$1:$L$500</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="531">
   <si>
     <t>Date</t>
   </si>
@@ -1374,6 +1375,264 @@
   </si>
   <si>
     <t>Product_ID</t>
+  </si>
+  <si>
+    <t>chutney</t>
+  </si>
+  <si>
+    <t>knor</t>
+  </si>
+  <si>
+    <t>turkey</t>
+  </si>
+  <si>
+    <t>eggs</t>
+  </si>
+  <si>
+    <t>kinley</t>
+  </si>
+  <si>
+    <t>mineral water</t>
+  </si>
+  <si>
+    <t>vegetable basket</t>
+  </si>
+  <si>
+    <t>spaghetti</t>
+  </si>
+  <si>
+    <t>parle g</t>
+  </si>
+  <si>
+    <t>wholed cheeze</t>
+  </si>
+  <si>
+    <t>maggi</t>
+  </si>
+  <si>
+    <t>pasta</t>
+  </si>
+  <si>
+    <t>chocolate</t>
+  </si>
+  <si>
+    <t>basmati rice</t>
+  </si>
+  <si>
+    <t>muffins</t>
+  </si>
+  <si>
+    <t>whole wheat pasta</t>
+  </si>
+  <si>
+    <t>red wine</t>
+  </si>
+  <si>
+    <t>milk</t>
+  </si>
+  <si>
+    <t>french fries</t>
+  </si>
+  <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>mushroom</t>
+  </si>
+  <si>
+    <t>pancakes</t>
+  </si>
+  <si>
+    <t>chicken</t>
+  </si>
+  <si>
+    <t>sandwich</t>
+  </si>
+  <si>
+    <t>olive oil</t>
+  </si>
+  <si>
+    <t>protein bar</t>
+  </si>
+  <si>
+    <t>burgers</t>
+  </si>
+  <si>
+    <t>tomatoes</t>
+  </si>
+  <si>
+    <t>buns</t>
+  </si>
+  <si>
+    <t>curd</t>
+  </si>
+  <si>
+    <t>pepper</t>
+  </si>
+  <si>
+    <t>green tea</t>
+  </si>
+  <si>
+    <t>chicken tikka</t>
+  </si>
+  <si>
+    <t>paneer</t>
+  </si>
+  <si>
+    <t>hot dogs</t>
+  </si>
+  <si>
+    <t>spirit fish</t>
+  </si>
+  <si>
+    <t>tomato juice</t>
+  </si>
+  <si>
+    <t>peanuts</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>strawberries</t>
+  </si>
+  <si>
+    <t>fruit basket</t>
+  </si>
+  <si>
+    <t>spinach</t>
+  </si>
+  <si>
+    <t>yams</t>
+  </si>
+  <si>
+    <t>salmon</t>
+  </si>
+  <si>
+    <t>energy bar</t>
+  </si>
+  <si>
+    <t>vegetables mix</t>
+  </si>
+  <si>
+    <t>sulaa vines</t>
+  </si>
+  <si>
+    <t>cooking oil</t>
+  </si>
+  <si>
+    <t>fresh bread</t>
+  </si>
+  <si>
+    <t>cereals</t>
+  </si>
+  <si>
+    <t>butter</t>
+  </si>
+  <si>
+    <t>whole weat flour</t>
+  </si>
+  <si>
+    <t>yogurt cake</t>
+  </si>
+  <si>
+    <t>hajmola</t>
+  </si>
+  <si>
+    <t>jalebi</t>
+  </si>
+  <si>
+    <t>brownies</t>
+  </si>
+  <si>
+    <t>whole wheat basmati rice</t>
+  </si>
+  <si>
+    <t>cottage cheese</t>
+  </si>
+  <si>
+    <t>trolly bag</t>
+  </si>
+  <si>
+    <t>play dude magazines</t>
+  </si>
+  <si>
+    <t>neckrest</t>
+  </si>
+  <si>
+    <t>french wine</t>
+  </si>
+  <si>
+    <t>gums</t>
+  </si>
+  <si>
+    <t>pedigree</t>
+  </si>
+  <si>
+    <t>melons</t>
+  </si>
+  <si>
+    <t>condoms</t>
+  </si>
+  <si>
+    <t>mop</t>
+  </si>
+  <si>
+    <t>green grapes</t>
+  </si>
+  <si>
+    <t>light mayo</t>
+  </si>
+  <si>
+    <t>kinder joy</t>
+  </si>
+  <si>
+    <t>green beans</t>
+  </si>
+  <si>
+    <t>gold flake</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>frooti</t>
+  </si>
+  <si>
+    <t>Roohafza</t>
+  </si>
+  <si>
+    <t>cadbury white chocolate</t>
+  </si>
+  <si>
+    <t>pepper spray</t>
+  </si>
+  <si>
+    <t>mortien</t>
+  </si>
+  <si>
+    <t>meatballs</t>
+  </si>
+  <si>
+    <t>oatmeal</t>
+  </si>
+  <si>
+    <t>antioxydant juice</t>
+  </si>
+  <si>
+    <t>chocolate bread</t>
+  </si>
+  <si>
+    <t>ramdev mirchi</t>
+  </si>
+  <si>
+    <t>nonfat milk</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Product Price</t>
   </si>
 </sst>
 </file>
@@ -1742,7 +2001,7 @@
   <dimension ref="A1:M500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14868,4 +15127,959 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39809366-0B7B-421D-AF90-7C6BA6770FDA}">
+  <dimension ref="A1:C85"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C6">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C13">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C18">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C19">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C21">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C22">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C23">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C24">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C26">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C27">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C28">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C29">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C32">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C33">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C34">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C36">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C37">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C38">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C39">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C40">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>115</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C41">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C42">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C43">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>127</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C44">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>131</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>133</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C46">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>139</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>146</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C48">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>148</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C49">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>150</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C50">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>162</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C51">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>165</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C52">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>167</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C53">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>171</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C54">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>176</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C55">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>178</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C56">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>186</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C57">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>224</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C58">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>229</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C59">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>233</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C60">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>237</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C61">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>241</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C62">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>244</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C63">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>246</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C64">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>254</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C65">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>262</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C66">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>267</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C67">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>273</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C68">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>277</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C69">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>282</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C70">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>293</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C71">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>311</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C72">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>325</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C73">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>339</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C74">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>341</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C75">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>344</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C76">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>351</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C77">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>363</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C78">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>366</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C79">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>370</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="C80">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>390</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C81">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>405</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C82">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>420</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C83">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>428</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C84">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>432</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="C85">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>